--- a/チュートリアル画像.xlsx
+++ b/チュートリアル画像.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28209"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\appirits_1020520\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tamaejunki/Documents/GitHub/myGameProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="26205" windowHeight="10860"/>
+    <workbookView xWindow="960" yWindow="460" windowWidth="26200" windowHeight="13100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -97,6 +103,306 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>412749</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="角丸四角形 48"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14446249" y="10604499"/>
+          <a:ext cx="8683625" cy="4222751"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="76200"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>384174</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>82551</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="角丸四角形 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2384424" y="11607801"/>
+          <a:ext cx="8458201" cy="4171949"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="76200"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>612774</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>168276</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>650875</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="角丸四角形 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11979274" y="4359276"/>
+          <a:ext cx="8705851" cy="4975224"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="76200"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>126999</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>31751</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>365124</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="角丸四角形 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1460499" y="1778001"/>
+          <a:ext cx="8905875" cy="6175374"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="76200"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12954000" y="492125"/>
+          <a:ext cx="6350000" cy="3111500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="76200"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -115,7 +421,7 @@
         <xdr:cNvPr id="22" name="図 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26EF96E7-95E6-4053-81E5-37DC3E62977F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{26EF96E7-95E6-4053-81E5-37DC3E62977F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -175,7 +481,7 @@
         <xdr:cNvPr id="24" name="図 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE334FEB-9535-44BB-8D22-E44B3D9D123E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FE334FEB-9535-44BB-8D22-E44B3D9D123E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -235,7 +541,7 @@
         <xdr:cNvPr id="26" name="図 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDD90F35-CE42-40E5-A44E-5574D60BD3AF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DDD90F35-CE42-40E5-A44E-5574D60BD3AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -295,7 +601,7 @@
         <xdr:cNvPr id="28" name="図 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3ACDA8A-7ED5-4BEC-8CE6-83CC893538E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D3ACDA8A-7ED5-4BEC-8CE6-83CC893538E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -355,7 +661,7 @@
         <xdr:cNvPr id="32" name="図 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B60FBC13-FC74-45AA-8765-8FF81230DB3E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B60FBC13-FC74-45AA-8765-8FF81230DB3E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -399,23 +705,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>33618</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>504265</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
+      <xdr:rowOff>160618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>28015</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19610</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="34" name="図 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77237995-D255-4014-8DA4-6C7EE16FB7F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{77237995-D255-4014-8DA4-6C7EE16FB7F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -437,8 +743,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12304059" y="201706"/>
-          <a:ext cx="2554941" cy="2554941"/>
+          <a:off x="14890750" y="335243"/>
+          <a:ext cx="2504515" cy="2652992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -449,23 +755,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>100854</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>470647</xdr:colOff>
+      <xdr:rowOff>42023</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>126999</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>67236</xdr:rowOff>
+      <xdr:rowOff>111125</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="11" name="吹き出し: 角を丸めた四角形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95B8AD88-7D5B-4BB6-8A63-AD209C19CAAA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{95B8AD88-7D5B-4BB6-8A63-AD209C19CAAA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -473,13 +779,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13099678" y="2610971"/>
-          <a:ext cx="3104028" cy="649941"/>
+          <a:off x="13509624" y="2661398"/>
+          <a:ext cx="5318125" cy="767602"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -21991"/>
-            <a:gd name="adj2" fmla="val -87875"/>
+            <a:gd name="adj1" fmla="val -12059"/>
+            <a:gd name="adj2" fmla="val -90223"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
@@ -516,7 +822,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -526,7 +832,7 @@
             <a:t>すべての計算で</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -536,15 +842,32 @@
             <a:t>2</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>を用います</a:t>
+            <a:t>を</a:t>
           </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>用います</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -552,23 +875,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>550694</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>328444</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>7315</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>519503</xdr:colOff>
+      <xdr:rowOff>7316</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>297253</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>155418</xdr:rowOff>
+      <xdr:rowOff>155419</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="36" name="図 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D09E5EF1-EA0C-4526-B6BC-83928DE27545}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D09E5EF1-EA0C-4526-B6BC-83928DE27545}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -590,8 +913,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="1639684">
-          <a:off x="15600194" y="2360550"/>
-          <a:ext cx="652368" cy="652368"/>
+          <a:off x="18362444" y="2452066"/>
+          <a:ext cx="635559" cy="671978"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -603,22 +926,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>257735</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>56030</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>627528</xdr:colOff>
+      <xdr:colOff>210110</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>87780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>33619</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="21" name="吹き出し: 角を丸めた四角形 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2B64F89-C8B6-4795-A9DC-4E7EA3BF0837}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E2B64F89-C8B6-4795-A9DC-4E7EA3BF0837}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -626,13 +949,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3675529" y="5602942"/>
-          <a:ext cx="3104028" cy="649942"/>
+          <a:off x="3543860" y="5675780"/>
+          <a:ext cx="6219265" cy="880595"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -57731"/>
-            <a:gd name="adj2" fmla="val -22357"/>
+            <a:gd name="adj1" fmla="val -58752"/>
+            <a:gd name="adj2" fmla="val -11541"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
@@ -669,7 +992,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -679,7 +1002,7 @@
             <a:t>÷</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -689,7 +1012,7 @@
             <a:t>マスをふむといまの数が</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -699,7 +1022,7 @@
             <a:t>÷</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -721,17 +1044,17 @@
       <xdr:rowOff>62755</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>611840</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>40344</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>396875</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="23" name="吹き出し: 角を丸めた四角形 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E081BD99-DCD8-4235-9738-6C7E65F75380}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E081BD99-DCD8-4235-9738-6C7E65F75380}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -739,13 +1062,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3659841" y="4433049"/>
-          <a:ext cx="3104028" cy="649942"/>
+          <a:off x="3575797" y="4603005"/>
+          <a:ext cx="6155578" cy="857995"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -60619"/>
-            <a:gd name="adj2" fmla="val -20633"/>
+            <a:gd name="adj1" fmla="val -58814"/>
+            <a:gd name="adj2" fmla="val -13232"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
@@ -782,7 +1105,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -792,7 +1115,7 @@
             <a:t>×</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -802,7 +1125,7 @@
             <a:t>マスをふむといまの数が</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -812,7 +1135,7 @@
             <a:t>×</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -834,17 +1157,17 @@
       <xdr:rowOff>35861</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>629769</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>13450</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="25" name="吹き出し: 角を丸めた四角形 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10348B5F-3A84-46F2-966D-1D0D42638994}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{10348B5F-3A84-46F2-966D-1D0D42638994}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -852,13 +1175,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3677770" y="3229537"/>
-          <a:ext cx="3104028" cy="649942"/>
+          <a:off x="3593726" y="3353736"/>
+          <a:ext cx="6090024" cy="932514"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -60619"/>
-            <a:gd name="adj2" fmla="val -15461"/>
+            <a:gd name="adj1" fmla="val -58534"/>
+            <a:gd name="adj2" fmla="val -12056"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
@@ -895,7 +1218,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -912,22 +1235,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>266702</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>8965</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>636495</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>154642</xdr:rowOff>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="27" name="吹き出し: 角を丸めた四角形 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{443C5349-323C-442F-A91A-FB953ED31489}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{443C5349-323C-442F-A91A-FB953ED31489}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -935,13 +1258,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3684496" y="2194112"/>
-          <a:ext cx="3104028" cy="649942"/>
+          <a:off x="3571875" y="2254250"/>
+          <a:ext cx="6080125" cy="825500"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -59175"/>
-            <a:gd name="adj2" fmla="val -17185"/>
+            <a:gd name="adj1" fmla="val -56529"/>
+            <a:gd name="adj2" fmla="val -26061"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
@@ -978,15 +1301,32 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>＋マスをふむといまの数が＋２</a:t>
+            <a:t>＋マスをふむといまの数が＋</a:t>
           </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -995,22 +1335,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>649942</xdr:colOff>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>64433</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>222251</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>22410</xdr:rowOff>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="29" name="吹き出し: 角を丸めた四角形 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E8A20EF-A171-4931-9837-9AC784F479A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5E8A20EF-A171-4931-9837-9AC784F479A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1018,13 +1358,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3760694" y="6835588"/>
-          <a:ext cx="3041277" cy="750793"/>
+          <a:off x="3629025" y="6700183"/>
+          <a:ext cx="5927726" cy="1189692"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -56230"/>
-            <a:gd name="adj2" fmla="val -25422"/>
+            <a:gd name="adj1" fmla="val -57202"/>
+            <a:gd name="adj2" fmla="val -12078"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
@@ -1061,7 +1401,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1070,7 +1410,7 @@
             </a:rPr>
             <a:t>緑で三角のマスをふむと</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -1081,7 +1421,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1091,7 +1431,7 @@
             <a:t>いまの数が</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1101,7 +1441,7 @@
             <a:t>2</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1133,7 +1473,7 @@
         <xdr:cNvPr id="14" name="図 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{482823AD-16F0-4D63-95B3-B7E06819D137}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{482823AD-16F0-4D63-95B3-B7E06819D137}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1183,7 +1523,7 @@
         <xdr:cNvPr id="16" name="図 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B512CA5F-C9E4-4CD4-9899-F38C76386237}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B512CA5F-C9E4-4CD4-9899-F38C76386237}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1217,23 +1557,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>477370</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>118783</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>201703</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>524995</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>55283</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>174624</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="33" name="吹き出し: 角を丸めた四角形 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56B4B41B-9AA9-4382-8C8C-8E37762D4374}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{56B4B41B-9AA9-4382-8C8C-8E37762D4374}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1241,13 +1581,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7996517" y="10372165"/>
-          <a:ext cx="4509245" cy="575982"/>
+          <a:off x="15225245" y="13501408"/>
+          <a:ext cx="7555380" cy="1167091"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -20607"/>
-            <a:gd name="adj2" fmla="val -90706"/>
+            <a:gd name="adj1" fmla="val -9933"/>
+            <a:gd name="adj2" fmla="val -98780"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
@@ -1284,7 +1624,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1294,7 +1634,7 @@
             <a:t>ゴールにはどの方向からぶつかっても</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1304,7 +1644,7 @@
             <a:t>OK </a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1336,7 +1676,7 @@
         <xdr:cNvPr id="17" name="矢印: 右 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6657AE7-73E3-4734-B25A-8E9E1C377456}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E6657AE7-73E3-4734-B25A-8E9E1C377456}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1408,7 +1748,7 @@
         <xdr:cNvPr id="37" name="矢印: 右 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0972A3A6-4580-4356-843A-CA61CCC404D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0972A3A6-4580-4356-843A-CA61CCC404D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1480,7 +1820,7 @@
         <xdr:cNvPr id="38" name="矢印: 右 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5307CFD-337A-48E9-A6E1-3A292FF38759}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C5307CFD-337A-48E9-A6E1-3A292FF38759}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1552,7 +1892,7 @@
         <xdr:cNvPr id="39" name="矢印: 右 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43B12FAD-12A6-469C-8173-8BEA7CEDA377}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{43B12FAD-12A6-469C-8173-8BEA7CEDA377}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1608,23 +1948,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>67235</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>156882</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>278973</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>85950</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>273610</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>14007</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>485348</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>117700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="19" name="図 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6EDD2E4-5E3B-4187-831D-2DEA23491081}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C6EDD2E4-5E3B-4187-831D-2DEA23491081}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1646,8 +1986,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6902823" y="11586882"/>
-          <a:ext cx="3629532" cy="1609950"/>
+          <a:off x="2940610" y="13809382"/>
+          <a:ext cx="3545488" cy="1675318"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1658,23 +1998,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>515471</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>134471</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>245596</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>70971</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>22412</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>89171</xdr:rowOff>
+      <xdr:colOff>419287</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>25671</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="40" name="図 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6606CECC-9C2D-4B16-805A-C63766CFFCC6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6606CECC-9C2D-4B16-805A-C63766CFFCC6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1695,8 +2035,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2566147" y="11732559"/>
-          <a:ext cx="3608294" cy="1467494"/>
+          <a:off x="2912596" y="11770846"/>
+          <a:ext cx="3507441" cy="1526325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1707,32 +2047,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>224117</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>22411</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>575824</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>60352</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>20077</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>505665</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>111128</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="42" name="矢印: 右 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F739BDD-87A1-4917-AEC7-6D856EDB813B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9F739BDD-87A1-4917-AEC7-6D856EDB813B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6376146" y="12292852"/>
-          <a:ext cx="351707" cy="374118"/>
+        <a:xfrm rot="5400000">
+          <a:off x="3898244" y="13298582"/>
+          <a:ext cx="614926" cy="600916"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1795,7 +2135,7 @@
         <xdr:cNvPr id="41" name="楕円 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B997B01-FB9C-4D07-B2C5-29FFD7FA711C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9B997B01-FB9C-4D07-B2C5-29FFD7FA711C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1845,23 +2185,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>540122</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>174997</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>63870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>159120</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>600635</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>107574</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="35" name="吹き出し: 角を丸めた四角形 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECB0089C-EC88-44D8-AAB0-C082DBEC06C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ECB0089C-EC88-44D8-AAB0-C082DBEC06C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1869,13 +2209,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3957916" y="13774267"/>
-          <a:ext cx="4845425" cy="620807"/>
+          <a:off x="5508997" y="13335370"/>
+          <a:ext cx="5206628" cy="952130"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 10218"/>
-            <a:gd name="adj2" fmla="val -180255"/>
+            <a:gd name="adj1" fmla="val -61738"/>
+            <a:gd name="adj2" fmla="val -30197"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
@@ -1912,7 +2252,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1928,23 +2268,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>466165</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>163607</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>197224</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>51549</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>593165</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>115982</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>587375</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="45" name="楕円 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46FB865F-CA01-4956-B0AA-4ABF1CB7B1DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{46FB865F-CA01-4956-B0AA-4ABF1CB7B1DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1952,8 +2292,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7985312" y="12097872"/>
-          <a:ext cx="414618" cy="392206"/>
+          <a:off x="3926915" y="14260607"/>
+          <a:ext cx="660960" cy="614268"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1994,23 +2334,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>298076</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>40340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>377450</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>72089</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="31" name="吹き出し: 角を丸めた四角形 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE998CF8-4CBA-49A2-A92F-5F80EDC3C612}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FE998CF8-4CBA-49A2-A92F-5F80EDC3C612}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2018,13 +2358,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13980458" y="8276664"/>
-          <a:ext cx="3130924" cy="811307"/>
+          <a:off x="15077700" y="6707839"/>
+          <a:ext cx="5432800" cy="1515411"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -32540"/>
-            <a:gd name="adj2" fmla="val -106890"/>
+            <a:gd name="adj1" fmla="val -63158"/>
+            <a:gd name="adj2" fmla="val -26108"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
@@ -2061,7 +2401,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -2071,7 +2411,7 @@
             <a:t>GOAL</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -2080,7 +2420,7 @@
             </a:rPr>
             <a:t>条件の数と同じ数にして</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -2091,7 +2431,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -2123,7 +2463,7 @@
         <xdr:cNvPr id="46" name="楕円 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D012CED-42FE-45F5-853B-8825EB56216B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6D012CED-42FE-45F5-853B-8825EB56216B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2189,7 +2529,7 @@
         <xdr:cNvPr id="47" name="楕円 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7849B168-7010-447A-AD3A-0ADCB589BCA7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7849B168-7010-447A-AD3A-0ADCB589BCA7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2537,22 +2877,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="S28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y33" sqref="Y33"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="15" width="9" style="1"/>
-    <col min="16" max="16" width="9.125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="1"/>
+    <col min="1" max="15" width="8.83203125" style="1"/>
+    <col min="16" max="16" width="9.1640625" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.83203125" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="28" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S28" s="1">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/チュートリアル画像.xlsx
+++ b/チュートリアル画像.xlsx
@@ -1,36 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28209"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tamaejunki/Documents/GitHub/myGameProject/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\appirits_1020520\Documents\UnityProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="960" yWindow="460" windowWidth="26200" windowHeight="13100"/>
+    <workbookView xWindow="1890" yWindow="465" windowWidth="26205" windowHeight="13095"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -118,7 +119,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="角丸四角形 48"/>
+        <xdr:cNvPr id="49" name="角丸四角形 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -130,11 +137,18 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:ln w="76200"/>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -178,7 +192,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="角丸四角形 47"/>
+        <xdr:cNvPr id="48" name="角丸四角形 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -190,11 +210,18 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:ln w="76200"/>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -238,7 +265,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="角丸四角形 43"/>
+        <xdr:cNvPr id="44" name="角丸四角形 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -250,11 +283,18 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:ln w="76200"/>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -298,7 +338,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="角丸四角形 42"/>
+        <xdr:cNvPr id="43" name="角丸四角形 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -310,11 +356,18 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:ln w="76200"/>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -358,7 +411,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="角丸四角形 1"/>
+        <xdr:cNvPr id="2" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -370,11 +429,18 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:ln w="76200"/>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -421,7 +487,7 @@
         <xdr:cNvPr id="22" name="図 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{26EF96E7-95E6-4053-81E5-37DC3E62977F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -481,7 +547,7 @@
         <xdr:cNvPr id="24" name="図 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FE334FEB-9535-44BB-8D22-E44B3D9D123E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -541,7 +607,7 @@
         <xdr:cNvPr id="26" name="図 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DDD90F35-CE42-40E5-A44E-5574D60BD3AF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -601,7 +667,7 @@
         <xdr:cNvPr id="28" name="図 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D3ACDA8A-7ED5-4BEC-8CE6-83CC893538E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -661,7 +727,7 @@
         <xdr:cNvPr id="32" name="図 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B60FBC13-FC74-45AA-8765-8FF81230DB3E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -721,7 +787,7 @@
         <xdr:cNvPr id="34" name="図 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{77237995-D255-4014-8DA4-6C7EE16FB7F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -771,7 +837,7 @@
         <xdr:cNvPr id="11" name="吹き出し: 角を丸めた四角形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{95B8AD88-7D5B-4BB6-8A63-AD209C19CAAA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -891,7 +957,7 @@
         <xdr:cNvPr id="36" name="図 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D09E5EF1-EA0C-4526-B6BC-83928DE27545}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -941,7 +1007,7 @@
         <xdr:cNvPr id="21" name="吹き出し: 角を丸めた四角形 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E2B64F89-C8B6-4795-A9DC-4E7EA3BF0837}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1054,7 +1120,7 @@
         <xdr:cNvPr id="23" name="吹き出し: 角を丸めた四角形 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E081BD99-DCD8-4235-9738-6C7E65F75380}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1167,7 +1233,7 @@
         <xdr:cNvPr id="25" name="吹き出し: 角を丸めた四角形 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{10348B5F-3A84-46F2-966D-1D0D42638994}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1250,7 +1316,7 @@
         <xdr:cNvPr id="27" name="吹き出し: 角を丸めた四角形 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{443C5349-323C-442F-A91A-FB953ED31489}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1350,7 +1416,7 @@
         <xdr:cNvPr id="29" name="吹き出し: 角を丸めた四角形 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5E8A20EF-A171-4931-9837-9AC784F479A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1473,7 +1539,7 @@
         <xdr:cNvPr id="14" name="図 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{482823AD-16F0-4D63-95B3-B7E06819D137}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1523,7 +1589,7 @@
         <xdr:cNvPr id="16" name="図 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B512CA5F-C9E4-4CD4-9899-F38C76386237}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1573,7 +1639,7 @@
         <xdr:cNvPr id="33" name="吹き出し: 角を丸めた四角形 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{56B4B41B-9AA9-4382-8C8C-8E37762D4374}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1676,7 +1742,7 @@
         <xdr:cNvPr id="17" name="矢印: 右 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E6657AE7-73E3-4734-B25A-8E9E1C377456}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1748,7 +1814,7 @@
         <xdr:cNvPr id="37" name="矢印: 右 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0972A3A6-4580-4356-843A-CA61CCC404D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1820,7 +1886,7 @@
         <xdr:cNvPr id="38" name="矢印: 右 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C5307CFD-337A-48E9-A6E1-3A292FF38759}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1892,7 +1958,7 @@
         <xdr:cNvPr id="39" name="矢印: 右 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{43B12FAD-12A6-469C-8173-8BEA7CEDA377}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1964,7 +2030,7 @@
         <xdr:cNvPr id="19" name="図 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C6EDD2E4-5E3B-4187-831D-2DEA23491081}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2014,7 +2080,7 @@
         <xdr:cNvPr id="40" name="図 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6606CECC-9C2D-4B16-805A-C63766CFFCC6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2063,7 +2129,7 @@
         <xdr:cNvPr id="42" name="矢印: 右 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9F739BDD-87A1-4917-AEC7-6D856EDB813B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2119,23 +2185,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>515469</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>44823</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>224117</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
+      <xdr:colOff>217813</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>128166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>605117</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>161784</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="41" name="楕円 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9B997B01-FB9C-4D07-B2C5-29FFD7FA711C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2143,8 +2209,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5300381" y="12315264"/>
-          <a:ext cx="392207" cy="369795"/>
+          <a:off x="5647063" y="11796291"/>
+          <a:ext cx="387304" cy="366993"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2201,7 +2267,7 @@
         <xdr:cNvPr id="35" name="吹き出し: 角を丸めた四角形 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ECB0089C-EC88-44D8-AAB0-C082DBEC06C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2284,7 +2350,7 @@
         <xdr:cNvPr id="45" name="楕円 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{46FB865F-CA01-4956-B0AA-4ABF1CB7B1DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2350,7 +2416,7 @@
         <xdr:cNvPr id="31" name="吹き出し: 角を丸めた四角形 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FE998CF8-4CBA-49A2-A92F-5F80EDC3C612}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2463,7 +2529,7 @@
         <xdr:cNvPr id="46" name="楕円 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6D012CED-42FE-45F5-853B-8825EB56216B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2529,7 +2595,7 @@
         <xdr:cNvPr id="47" name="楕円 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7849B168-7010-447A-AD3A-0ADCB589BCA7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2877,23 +2943,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="S28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="U81" sqref="U81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="15" width="8.83203125" style="1"/>
-    <col min="16" max="16" width="9.1640625" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="15" width="8.875" style="1"/>
+    <col min="16" max="16" width="9.125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="28" spans="19:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="19:19" x14ac:dyDescent="0.4">
       <c r="S28" s="1">
         <v>20</v>
       </c>
@@ -2903,5 +2969,23 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <webPublishItems count="1">
+    <webPublishItem id="22987" divId="チュートリアル画像_22987" sourceType="sheet" destinationFile="C:\Users\appirits_1020520\Desktop\チュートリアル画像.htm"/>
+  </webPublishItems>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>